--- a/biology/Botanique/Hubert_Winkler/Hubert_Winkler.xlsx
+++ b/biology/Botanique/Hubert_Winkler/Hubert_Winkler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hubert J.P. Winkler, né le 13 février 1875 à Prenzlau et mort le 10 juin 1941 à Breslau (auj. Wrocław), est un naturaliste et un botaniste allemand, spécialiste de la flore tropicale, au Cameroun et en Asie.
-Il travaille notamment à Victoria – aujourd'hui jardin botanique de Limbé (Cameroun) – et, de 1904 à 1905, collecta une importante collection de quelque 1 600 plantes autour du mont Cameroun[1].
+Il travaille notamment à Victoria – aujourd'hui jardin botanique de Limbé (Cameroun) – et, de 1904 à 1905, collecta une importante collection de quelque 1 600 plantes autour du mont Cameroun.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(de) Botanisches Hilfsbuch für Pflanzer, Kolonialbeamte, Tropenkaufleute und Forschungsreisende 1912), [lire en ligne]</t>
         </is>
